--- a/Custom/Performance.xlsx
+++ b/Custom/Performance.xlsx
@@ -1,26 +1,332 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spbro\BrooksAeroDesignSuite\Custom\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FADDED8-A08D-4FDB-8713-D2A3A14140EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Metric" sheetId="1" r:id="rId1"/>
+    <sheet name="Imperial" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
+  <si>
+    <t>Vehicle Data</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>mac</t>
+  </si>
+  <si>
+    <t>taper ratio</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>m^2</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Calculations</t>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>r</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t</t>
+    </r>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ref</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <t>Atmosphere</t>
+  </si>
+  <si>
+    <t>Altitude</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>max</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>(L/D)</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>max</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(L/D)max</t>
+    </r>
+  </si>
+  <si>
+    <t>m/s</t>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>opt</t>
+    </r>
+  </si>
+  <si>
+    <t>kg/m^3</t>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>minPR</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>minPR</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>(L/D)</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cruise</t>
+    </r>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,13 +334,74 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <vertAlign val="subscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -49,8 +416,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,12 +713,282 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="3"/>
+      <c r="H1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8">
+        <v>10</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="3"/>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2">
+        <f>1/(PI()*B11*B10)</f>
+        <v>0.7859503362562732</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+      <c r="A3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="8">
+        <v>200</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3">
+        <f>1/(2*SQRT(B9*I2))</f>
+        <v>1.2456485355143743</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+      <c r="A4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="8">
+        <v>10</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4">
+        <f>SQRT((2*B13)/(B25*I5*B3))</f>
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+      <c r="A5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="8">
+        <v>7</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5">
+        <f>SQRT(B9/I2)</f>
+        <v>0.51071589956089347</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="8">
+        <v>8.5</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6">
+        <f>SQRT((3*B9)/I2)</f>
+        <v>0.88458588627271117</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="8">
+        <f>B5/B4</f>
+        <v>0.7</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7">
+        <f>SQRT(((2*B13)/(B25*B3))*SQRT(I2/(3*B9)))</f>
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+      <c r="A8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1.35</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="H8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8">
+        <f>0.943*I3</f>
+        <v>1.1746465689900549</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="18" x14ac:dyDescent="0.4">
+      <c r="A9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="8">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>0.81</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <f>(B2^2)/B3</f>
+        <v>0.5</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A23" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25">
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20E6612A-72D8-400B-A422-72EDE4570FE4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
